--- a/Projects/CCNAYARMX/Especializado/Data/CCNayar_POS_Options_Especializado_v7.xlsx
+++ b/Projects/CCNAYARMX/Especializado/Data/CCNayar_POS_Options_Especializado_v7.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="POS Options" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,6 +14,8 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'POS Options'!$A$1:$Z$5</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'POS Options'!$A$1:$Z$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'POS Options'!$A$1:$Z$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'POS Options'!$A$1:$Z$5</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="95">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -108,7 +110,7 @@
     <t xml:space="preserve">¿Tiene Copete y Cenefas-Hidratación?</t>
   </si>
   <si>
-    <t xml:space="preserve">Hidratación</t>
+    <t xml:space="preserve">Hidratacion</t>
   </si>
   <si>
     <t xml:space="preserve">Plataforma KO Rack</t>
@@ -303,31 +305,13 @@
     <t xml:space="preserve">Assortment_Facings_Constraints</t>
   </si>
   <si>
-    <t xml:space="preserve">Ahorrack</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mediano</t>
   </si>
   <si>
-    <t xml:space="preserve">Assortment_1</t>
+    <t xml:space="preserve">Ciel_Mineral_NR_600_ml</t>
   </si>
   <si>
     <t xml:space="preserve">Grande</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comidas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frutales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assortment_2&gt;Assortment_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ciel_Mineral_NR_600_ml</t>
   </si>
 </sst>
 </file>
@@ -451,7 +435,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -488,10 +472,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -500,12 +480,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -591,29 +571,29 @@
   </sheetPr>
   <dimension ref="A1:Z65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="51.7407407407407"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="29.4"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="40.7666666666667"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="33.6111111111111"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="2" width="33.1222222222222"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="24.8888888888889"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="37.6296296296296"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="26.9481481481481"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="29.4"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="27.9296296296296"/>
-    <col collapsed="false" hidden="false" max="22" min="12" style="2" width="29.6925925925926"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="126.411111111111"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="152.281481481481"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="96.6222222222222"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="112.985185185185"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="21.1666666666667"/>
-    <col collapsed="false" hidden="false" max="1025" min="28" style="1" width="11.562962962963"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="54.2888888888889"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="30.8666666666667"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="42.8222222222222"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="35.2777777777778"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="2" width="34.6888888888889"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="26.0666666666667"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="39.4925925925926"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="28.1259259259259"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="30.8666666666667"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="29.3"/>
+    <col collapsed="false" hidden="false" max="22" min="12" style="2" width="31.162962962963"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="132.881481481481"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="160.218518518519"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="101.618518518519"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="118.866666666667"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="22.2444444444444"/>
+    <col collapsed="false" hidden="false" max="1025" min="28" style="1" width="12.1518518518519"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -696,7 +676,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="44.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
         <v>26</v>
       </c>
@@ -756,15 +736,15 @@
       <c r="W2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="X2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="Y2" s="5" t="s">
         <v>45</v>
       </c>
       <c r="Z2" s="8"/>
     </row>
-    <row r="3" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="29.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
         <v>26</v>
       </c>
@@ -810,15 +790,15 @@
       <c r="W3" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="X3" s="9" t="s">
+      <c r="X3" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Y3" s="9" t="s">
+      <c r="Y3" s="5" t="s">
         <v>45</v>
       </c>
       <c r="Z3" s="8"/>
     </row>
-    <row r="4" customFormat="false" ht="102" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="72.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
         <v>54</v>
       </c>
@@ -883,18 +863,18 @@
         <v>73</v>
       </c>
       <c r="V4" s="5"/>
-      <c r="W4" s="9" t="s">
+      <c r="W4" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="X4" s="9" t="s">
+      <c r="X4" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="Y4" s="9" t="s">
+      <c r="Y4" s="5" t="s">
         <v>76</v>
       </c>
       <c r="Z4" s="8"/>
     </row>
-    <row r="5" customFormat="false" ht="102" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="72.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
         <v>54</v>
       </c>
@@ -941,13 +921,13 @@
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
       <c r="V5" s="5"/>
-      <c r="W5" s="9" t="s">
+      <c r="W5" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="X5" s="9" t="s">
+      <c r="X5" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="Y5" s="9" t="s">
+      <c r="Y5" s="5" t="s">
         <v>76</v>
       </c>
       <c r="Z5" s="8"/>
@@ -975,57 +955,56 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.437037037037"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.9481481481481"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.0814814814815"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.3777777777778"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.0444444444444"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.2851851851852"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.3666666666667"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="31.4555555555556"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.2703703703704"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.0037037037037"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.1259259259259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.8444444444444"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.9444444444444"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.6111111111111"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.262962962963"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.1481481481481"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="33.0222222222222"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>93</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>28</v>
@@ -1033,19 +1012,21 @@
       <c r="D2" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="G2" s="12"/>
+      <c r="E2" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="H2" s="12"/>
     </row>
-    <row r="3" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>93</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>46</v>
@@ -1053,19 +1034,21 @@
       <c r="D3" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12" t="s">
+      <c r="E3" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-    </row>
-    <row r="4" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>95</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>28</v>
@@ -1073,19 +1056,21 @@
       <c r="D4" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12" t="s">
+      <c r="E4" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-    </row>
-    <row r="5" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>95</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>46</v>
@@ -1093,37 +1078,39 @@
       <c r="D5" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="G5" s="12"/>
+      <c r="E5" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="H5" s="12"/>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
-        <v>96</v>
+    <row r="6" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
     </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
-        <v>96</v>
+    <row r="7" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>46</v>
@@ -1136,318 +1123,56 @@
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
     </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
-        <v>96</v>
+    <row r="8" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
-        <v>96</v>
+    <row r="9" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>46</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="6" t="n">
-        <v>12</v>
-      </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="6" t="n">
-        <v>12</v>
-      </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="H16" s="12"/>
-    </row>
-    <row r="17" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="H17" s="12"/>
-    </row>
-    <row r="18" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="6" t="n">
-        <v>12</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="H18" s="12"/>
-    </row>
-    <row r="19" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="H19" s="12"/>
-    </row>
-    <row r="20" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-    </row>
-    <row r="21" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-    </row>
-    <row r="22" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="6" t="n">
-        <v>12</v>
-      </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-    </row>
-    <row r="23" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-    </row>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
